--- a/novo_layout_CAIXA_por_tipo_registro.xlsx
+++ b/novo_layout_CAIXA_por_tipo_registro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OliveiD1\Desktop\SS84832\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balbinth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="5310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +565,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,12 +617,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,6 +640,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,19 +937,19 @@
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="4"/>
+    <col min="4" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -946,10 +961,10 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -957,54 +972,54 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1016,10 +1031,10 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1027,808 +1042,808 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>36</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
         <v>14</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
         <v>4</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4">
         <v>6</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4">
         <v>3</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4">
         <v>3</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
         <v>4</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
         <v>3</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
         <v>3</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
         <v>4</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="B31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4">
         <v>5</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="4">
         <v>4</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4">
         <v>4</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4">
         <v>4</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>2</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="B36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="4">
         <v>8</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="4">
         <v>6</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="4">
         <v>3</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>3</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>50</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>4</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="5">
-        <v>11</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>14</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>25</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>2</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="B48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="4">
         <v>8</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>60</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="5"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="11"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -1840,10 +1855,10 @@
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -1851,124 +1866,124 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>1</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="5">
+      <c r="B56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="4">
         <v>12</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="5"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>36</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="8"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="B58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="7">
         <v>14</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F58" s="8"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="B59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="7">
         <v>4</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="8"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="8">
+      <c r="B60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="7">
         <v>9</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="8"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1980,10 +1995,10 @@
       <c r="C63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -1991,72 +2006,72 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>1</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="5">
+      <c r="B65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="4">
         <v>12</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="5"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="8">
+      <c r="B66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="7">
         <v>30</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -2068,10 +2083,10 @@
       <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -2079,60 +2094,60 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>1</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="5">
+      <c r="B71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="4">
         <v>12</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="5"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="8">
+      <c r="B72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="7">
         <v>30</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2145,5 +2160,6 @@
     <mergeCell ref="A68:F68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>